--- a/pred_ohlcv/54_21/2019-11-12 WET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-12 WET ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>65105974.287</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -548,7 +548,7 @@
         <v>65138876.6784</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>65064694.72170001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>65220131.19010001</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>65220236.19010001</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>65425154.2229</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>65424421.9512</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>65424971.9512</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>65424971.9512</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>65502811.5994</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>65511589.2655</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>65660455.2522</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>65701563.0203</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>66029317.7224</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>66029317.7224</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>65944851.893</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>65944851.893</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>65429412.7933</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>64820733.0433813</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>64774925.7244813</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>65249259.1327813</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>65439775.97798131</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>66427235.79508131</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>66319304.48388131</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>66334404.48388131</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>66762656.67821153</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>66762656.67821153</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>66762656.67821153</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>67272612.77911152</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>65749540.61591152</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>65878513.58861152</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>66135422.03011152</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>67108259.74801152</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>67198259.74801153</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>67279639.42591153</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>68492889.38731153</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>69037223.24616644</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>68465496.8160996</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>68483787.8241996</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>68557765.8344996</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>68186660.4172996</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>67826903.0156996</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>67826903.0156996</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>68048521.54819959</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>68053819.6266996</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>68011672.1133996</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>64207202.7718996</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>64289012.0041469</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>64201229.09325582</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>64201229.09325582</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>64296214.76955581</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>64751963.58915582</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>64828570.13252471</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>64917917.28562471</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>64871879.78562471</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>64871879.78562471</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>64871346.59742471</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>62179908.74728184</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-12 WET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-12 WET ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>65106079.287</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>65138876.6784</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>65138876.6784</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>65064694.72170001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>65092301.77030001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>65220131.19010001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>65220236.19010001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>65220236.19010001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>65425154.2229</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>65424421.9512</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>65424971.9512</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>65424971.9512</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>65502811.5994</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>65660455.2522</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>65701563.0203</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>66029317.7224</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>66029317.7224</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>65944851.893</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>65944851.893</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>65429412.7933</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>65249259.1327813</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>65439775.97798131</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>66427235.79508131</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>66319304.48388131</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>66334404.48388131</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>66762656.67821153</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>66762656.67821153</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>66762656.67821153</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>67272612.77911152</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>65749540.61591152</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>65878513.58861152</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>66135422.03011152</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>67108259.74801152</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>67198259.74801153</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>69037223.24616644</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>68465496.8160996</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>68483787.8241996</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>68557765.8344996</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>68186660.4172996</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>67826903.0156996</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>64207202.7718996</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>64289012.0041469</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>64201229.09325582</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>64369418.27885582</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>64296214.76955581</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>64860022.93465582</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>64751963.58915582</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>64828570.13252471</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>64917917.28562471</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>64871879.78562471</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>64871879.78562471</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>64871346.59742471</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>62060643.79388184</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>62147839.21348184</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>62179908.74728184</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
